--- a/etc/templates/report/Excel.xlsx
+++ b/etc/templates/report/Excel.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teppler\source\repos\BudgetPy\etc\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terry\source\repos\BudgetPy\etc\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69858EA-4E6B-40FA-B66F-91533C0F62FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DC99F-6405-465E-8C14-2C4EE1C7A101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{688E59C9-E96F-4263-B047-051B13D0C402}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{688E59C9-E96F-4263-B047-051B13D0C402}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tab" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,14 +32,51 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Source Code Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <sz val="8"/>
@@ -67,14 +104,213 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -121,12 +357,12 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
@@ -138,7 +374,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border>
@@ -157,21 +393,23 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="BudgetXTable" defaultPivotStyle="PivotTable">
-    <tableStyle name="BudgetXTable" pivot="0" count="2" xr9:uid="{1589B50D-198B-48DF-874C-7FA5E77305AA}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+  <tableStyles count="2" defaultTableStyle="BudgetExecutionTable" defaultPivotStyle="PivotTable">
+    <tableStyle name="BudgetExecutionTable" pivot="0" count="2" xr9:uid="{1589B50D-198B-48DF-874C-7FA5E77305AA}">
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
     <tableStyle name="PivotTable" table="0" count="3" xr9:uid="{22D3457F-8969-4B83-93A8-4BBCB0EC31E5}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFAFAFA"/>
+      <color rgb="FFF2F2F2"/>
       <color rgb="FFF7F7F7"/>
-      <color rgb="FFF2F2F2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -185,39 +423,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{778EDAF5-8128-4A57-A4AE-1CBC0AA2E978}" name="Table1" displayName="Table1" ref="A1:I51" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I51" xr:uid="{778EDAF5-8128-4A57-A4AE-1CBC0AA2E978}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{096435C8-2638-4E06-9049-A1AF06093924}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CA6E1495-2F08-4B38-9CA5-AF9C42FB3EF1}" name="Column2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7DFCF1B3-CA99-4B79-87A4-04770551DDEE}" name="Column3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9A081D78-511D-4043-AE3A-885EEE474004}" name="Column4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{31F7C60A-0AA3-40A4-9A50-3ACA9675A806}" name="Column5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{2EC0248B-BBC7-4DC5-B41C-7BE3FE87D088}" name="Column6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{0134ECE8-4A10-4C65-B0E1-937ABA856823}" name="Column7" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{1C3C6565-8A56-4416-98FE-62D47A821927}" name="Column9" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{88022CA9-0C81-4FDF-8730-99B30C32F8A7}" name="Column10" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="BudgetExecutionTable" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="BudgetExecution">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Budget Execution Dark Mode">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="0A0A0A"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0F0F0F"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="C1C1C1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="8EA3BD"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="1E2300"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="1E1E00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="343434"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0563C1"/>
@@ -226,110 +482,16 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Darkmode Source Font">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Source Code Pro"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Roboto"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,27 +645,2149 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0208BE-A32F-45EA-95B5-ED8038815612}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="10" width="9.85546875" style="2"/>
+    <col min="11" max="16384" width="9.85546875" style="1"/>
   </cols>
-  <sheetData/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>354</v>
+      </c>
+      <c r="B2" s="3">
+        <v>637</v>
+      </c>
+      <c r="C2" s="3">
+        <v>444</v>
+      </c>
+      <c r="D2" s="3">
+        <v>321</v>
+      </c>
+      <c r="E2" s="3">
+        <v>555</v>
+      </c>
+      <c r="F2" s="3">
+        <v>556</v>
+      </c>
+      <c r="G2" s="3">
+        <v>776</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7755</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>637</v>
+      </c>
+      <c r="B3" s="3">
+        <v>444</v>
+      </c>
+      <c r="C3" s="3">
+        <v>321</v>
+      </c>
+      <c r="D3" s="3">
+        <v>555</v>
+      </c>
+      <c r="E3" s="3">
+        <v>556</v>
+      </c>
+      <c r="F3" s="3">
+        <v>776</v>
+      </c>
+      <c r="G3" s="3">
+        <v>7755</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2121</v>
+      </c>
+      <c r="I3" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>444</v>
+      </c>
+      <c r="B4" s="3">
+        <v>321</v>
+      </c>
+      <c r="C4" s="3">
+        <v>555</v>
+      </c>
+      <c r="D4" s="3">
+        <v>556</v>
+      </c>
+      <c r="E4" s="3">
+        <v>776</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7755</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2121</v>
+      </c>
+      <c r="H4" s="3">
+        <v>354</v>
+      </c>
+      <c r="I4" s="3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>321</v>
+      </c>
+      <c r="B5" s="3">
+        <v>555</v>
+      </c>
+      <c r="C5" s="3">
+        <v>556</v>
+      </c>
+      <c r="D5" s="3">
+        <v>776</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7755</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2121</v>
+      </c>
+      <c r="G5" s="3">
+        <v>354</v>
+      </c>
+      <c r="H5" s="3">
+        <v>637</v>
+      </c>
+      <c r="I5" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>555</v>
+      </c>
+      <c r="B6" s="3">
+        <v>556</v>
+      </c>
+      <c r="C6" s="3">
+        <v>776</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7755</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2121</v>
+      </c>
+      <c r="F6" s="3">
+        <v>354</v>
+      </c>
+      <c r="G6" s="3">
+        <v>637</v>
+      </c>
+      <c r="H6" s="3">
+        <v>444</v>
+      </c>
+      <c r="I6" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>556</v>
+      </c>
+      <c r="B7" s="3">
+        <v>776</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7755</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2121</v>
+      </c>
+      <c r="E7" s="3">
+        <v>354</v>
+      </c>
+      <c r="F7" s="3">
+        <v>637</v>
+      </c>
+      <c r="G7" s="3">
+        <v>444</v>
+      </c>
+      <c r="H7" s="3">
+        <v>321</v>
+      </c>
+      <c r="I7" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>776</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7755</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2121</v>
+      </c>
+      <c r="D8" s="3">
+        <v>354</v>
+      </c>
+      <c r="E8" s="3">
+        <v>637</v>
+      </c>
+      <c r="F8" s="3">
+        <v>444</v>
+      </c>
+      <c r="G8" s="3">
+        <v>321</v>
+      </c>
+      <c r="H8" s="3">
+        <v>555</v>
+      </c>
+      <c r="I8" s="3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7755</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2121</v>
+      </c>
+      <c r="C9" s="3">
+        <v>354</v>
+      </c>
+      <c r="D9" s="3">
+        <v>637</v>
+      </c>
+      <c r="E9" s="3">
+        <v>444</v>
+      </c>
+      <c r="F9" s="3">
+        <v>321</v>
+      </c>
+      <c r="G9" s="3">
+        <v>555</v>
+      </c>
+      <c r="H9" s="3">
+        <v>556</v>
+      </c>
+      <c r="I9" s="3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2121</v>
+      </c>
+      <c r="B10" s="3">
+        <v>354</v>
+      </c>
+      <c r="C10" s="3">
+        <v>637</v>
+      </c>
+      <c r="D10" s="3">
+        <v>444</v>
+      </c>
+      <c r="E10" s="3">
+        <v>321</v>
+      </c>
+      <c r="F10" s="3">
+        <v>555</v>
+      </c>
+      <c r="G10" s="3">
+        <v>556</v>
+      </c>
+      <c r="H10" s="3">
+        <v>776</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>354</v>
+      </c>
+      <c r="B11" s="3">
+        <v>637</v>
+      </c>
+      <c r="C11" s="3">
+        <v>444</v>
+      </c>
+      <c r="D11" s="3">
+        <v>321</v>
+      </c>
+      <c r="E11" s="3">
+        <v>555</v>
+      </c>
+      <c r="F11" s="3">
+        <v>556</v>
+      </c>
+      <c r="G11" s="3">
+        <v>776</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7755</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>637</v>
+      </c>
+      <c r="B12" s="3">
+        <v>444</v>
+      </c>
+      <c r="C12" s="3">
+        <v>321</v>
+      </c>
+      <c r="D12" s="3">
+        <v>555</v>
+      </c>
+      <c r="E12" s="3">
+        <v>556</v>
+      </c>
+      <c r="F12" s="3">
+        <v>776</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7755</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2121</v>
+      </c>
+      <c r="I12" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>444</v>
+      </c>
+      <c r="B13" s="3">
+        <v>321</v>
+      </c>
+      <c r="C13" s="3">
+        <v>555</v>
+      </c>
+      <c r="D13" s="3">
+        <v>556</v>
+      </c>
+      <c r="E13" s="3">
+        <v>776</v>
+      </c>
+      <c r="F13" s="3">
+        <v>7755</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2121</v>
+      </c>
+      <c r="H13" s="3">
+        <v>354</v>
+      </c>
+      <c r="I13" s="3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>321</v>
+      </c>
+      <c r="B14" s="3">
+        <v>555</v>
+      </c>
+      <c r="C14" s="3">
+        <v>556</v>
+      </c>
+      <c r="D14" s="3">
+        <v>776</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7755</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2121</v>
+      </c>
+      <c r="G14" s="3">
+        <v>354</v>
+      </c>
+      <c r="H14" s="3">
+        <v>637</v>
+      </c>
+      <c r="I14" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>555</v>
+      </c>
+      <c r="B15" s="3">
+        <v>556</v>
+      </c>
+      <c r="C15" s="3">
+        <v>776</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7755</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2121</v>
+      </c>
+      <c r="F15" s="3">
+        <v>354</v>
+      </c>
+      <c r="G15" s="3">
+        <v>637</v>
+      </c>
+      <c r="H15" s="3">
+        <v>444</v>
+      </c>
+      <c r="I15" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>556</v>
+      </c>
+      <c r="B16" s="3">
+        <v>776</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7755</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2121</v>
+      </c>
+      <c r="E16" s="3">
+        <v>354</v>
+      </c>
+      <c r="F16" s="3">
+        <v>637</v>
+      </c>
+      <c r="G16" s="3">
+        <v>444</v>
+      </c>
+      <c r="H16" s="3">
+        <v>321</v>
+      </c>
+      <c r="I16" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>776</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7755</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2121</v>
+      </c>
+      <c r="D17" s="3">
+        <v>354</v>
+      </c>
+      <c r="E17" s="3">
+        <v>637</v>
+      </c>
+      <c r="F17" s="3">
+        <v>444</v>
+      </c>
+      <c r="G17" s="3">
+        <v>321</v>
+      </c>
+      <c r="H17" s="3">
+        <v>555</v>
+      </c>
+      <c r="I17" s="3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>7755</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2121</v>
+      </c>
+      <c r="C18" s="3">
+        <v>354</v>
+      </c>
+      <c r="D18" s="3">
+        <v>637</v>
+      </c>
+      <c r="E18" s="3">
+        <v>444</v>
+      </c>
+      <c r="F18" s="3">
+        <v>321</v>
+      </c>
+      <c r="G18" s="3">
+        <v>555</v>
+      </c>
+      <c r="H18" s="3">
+        <v>556</v>
+      </c>
+      <c r="I18" s="3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2121</v>
+      </c>
+      <c r="B19" s="3">
+        <v>354</v>
+      </c>
+      <c r="C19" s="3">
+        <v>637</v>
+      </c>
+      <c r="D19" s="3">
+        <v>444</v>
+      </c>
+      <c r="E19" s="3">
+        <v>321</v>
+      </c>
+      <c r="F19" s="3">
+        <v>555</v>
+      </c>
+      <c r="G19" s="3">
+        <v>556</v>
+      </c>
+      <c r="H19" s="3">
+        <v>776</v>
+      </c>
+      <c r="I19" s="3">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>354</v>
+      </c>
+      <c r="B20" s="3">
+        <v>637</v>
+      </c>
+      <c r="C20" s="3">
+        <v>444</v>
+      </c>
+      <c r="D20" s="3">
+        <v>321</v>
+      </c>
+      <c r="E20" s="3">
+        <v>555</v>
+      </c>
+      <c r="F20" s="3">
+        <v>556</v>
+      </c>
+      <c r="G20" s="3">
+        <v>776</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7755</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>637</v>
+      </c>
+      <c r="B21" s="3">
+        <v>444</v>
+      </c>
+      <c r="C21" s="3">
+        <v>321</v>
+      </c>
+      <c r="D21" s="3">
+        <v>555</v>
+      </c>
+      <c r="E21" s="3">
+        <v>556</v>
+      </c>
+      <c r="F21" s="3">
+        <v>776</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7755</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2121</v>
+      </c>
+      <c r="I21" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>444</v>
+      </c>
+      <c r="B22" s="3">
+        <v>321</v>
+      </c>
+      <c r="C22" s="3">
+        <v>555</v>
+      </c>
+      <c r="D22" s="3">
+        <v>556</v>
+      </c>
+      <c r="E22" s="3">
+        <v>776</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7755</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2121</v>
+      </c>
+      <c r="H22" s="3">
+        <v>354</v>
+      </c>
+      <c r="I22" s="3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>321</v>
+      </c>
+      <c r="B23" s="3">
+        <v>555</v>
+      </c>
+      <c r="C23" s="3">
+        <v>556</v>
+      </c>
+      <c r="D23" s="3">
+        <v>776</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7755</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2121</v>
+      </c>
+      <c r="G23" s="3">
+        <v>354</v>
+      </c>
+      <c r="H23" s="3">
+        <v>637</v>
+      </c>
+      <c r="I23" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>555</v>
+      </c>
+      <c r="B24" s="3">
+        <v>556</v>
+      </c>
+      <c r="C24" s="3">
+        <v>776</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7755</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2121</v>
+      </c>
+      <c r="F24" s="3">
+        <v>354</v>
+      </c>
+      <c r="G24" s="3">
+        <v>637</v>
+      </c>
+      <c r="H24" s="3">
+        <v>444</v>
+      </c>
+      <c r="I24" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>556</v>
+      </c>
+      <c r="B25" s="3">
+        <v>776</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7755</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2121</v>
+      </c>
+      <c r="E25" s="3">
+        <v>354</v>
+      </c>
+      <c r="F25" s="3">
+        <v>637</v>
+      </c>
+      <c r="G25" s="3">
+        <v>444</v>
+      </c>
+      <c r="H25" s="3">
+        <v>321</v>
+      </c>
+      <c r="I25" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>776</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7755</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2121</v>
+      </c>
+      <c r="D26" s="3">
+        <v>354</v>
+      </c>
+      <c r="E26" s="3">
+        <v>637</v>
+      </c>
+      <c r="F26" s="3">
+        <v>444</v>
+      </c>
+      <c r="G26" s="3">
+        <v>321</v>
+      </c>
+      <c r="H26" s="3">
+        <v>555</v>
+      </c>
+      <c r="I26" s="3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>7755</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2121</v>
+      </c>
+      <c r="C27" s="3">
+        <v>354</v>
+      </c>
+      <c r="D27" s="3">
+        <v>637</v>
+      </c>
+      <c r="E27" s="3">
+        <v>444</v>
+      </c>
+      <c r="F27" s="3">
+        <v>321</v>
+      </c>
+      <c r="G27" s="3">
+        <v>555</v>
+      </c>
+      <c r="H27" s="3">
+        <v>556</v>
+      </c>
+      <c r="I27" s="3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>2121</v>
+      </c>
+      <c r="B28" s="3">
+        <v>354</v>
+      </c>
+      <c r="C28" s="3">
+        <v>637</v>
+      </c>
+      <c r="D28" s="3">
+        <v>444</v>
+      </c>
+      <c r="E28" s="3">
+        <v>321</v>
+      </c>
+      <c r="F28" s="3">
+        <v>555</v>
+      </c>
+      <c r="G28" s="3">
+        <v>556</v>
+      </c>
+      <c r="H28" s="3">
+        <v>776</v>
+      </c>
+      <c r="I28" s="3">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>354</v>
+      </c>
+      <c r="B29" s="3">
+        <v>637</v>
+      </c>
+      <c r="C29" s="3">
+        <v>444</v>
+      </c>
+      <c r="D29" s="3">
+        <v>321</v>
+      </c>
+      <c r="E29" s="3">
+        <v>555</v>
+      </c>
+      <c r="F29" s="3">
+        <v>556</v>
+      </c>
+      <c r="G29" s="3">
+        <v>776</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7755</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>637</v>
+      </c>
+      <c r="B30" s="3">
+        <v>444</v>
+      </c>
+      <c r="C30" s="3">
+        <v>321</v>
+      </c>
+      <c r="D30" s="3">
+        <v>555</v>
+      </c>
+      <c r="E30" s="3">
+        <v>556</v>
+      </c>
+      <c r="F30" s="3">
+        <v>776</v>
+      </c>
+      <c r="G30" s="3">
+        <v>7755</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2121</v>
+      </c>
+      <c r="I30" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>444</v>
+      </c>
+      <c r="B31" s="3">
+        <v>321</v>
+      </c>
+      <c r="C31" s="3">
+        <v>555</v>
+      </c>
+      <c r="D31" s="3">
+        <v>556</v>
+      </c>
+      <c r="E31" s="3">
+        <v>776</v>
+      </c>
+      <c r="F31" s="3">
+        <v>7755</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2121</v>
+      </c>
+      <c r="H31" s="3">
+        <v>354</v>
+      </c>
+      <c r="I31" s="3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>321</v>
+      </c>
+      <c r="B32" s="3">
+        <v>555</v>
+      </c>
+      <c r="C32" s="3">
+        <v>556</v>
+      </c>
+      <c r="D32" s="3">
+        <v>776</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7755</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2121</v>
+      </c>
+      <c r="G32" s="3">
+        <v>354</v>
+      </c>
+      <c r="H32" s="3">
+        <v>637</v>
+      </c>
+      <c r="I32" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>555</v>
+      </c>
+      <c r="B33" s="3">
+        <v>556</v>
+      </c>
+      <c r="C33" s="3">
+        <v>776</v>
+      </c>
+      <c r="D33" s="3">
+        <v>7755</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2121</v>
+      </c>
+      <c r="F33" s="3">
+        <v>354</v>
+      </c>
+      <c r="G33" s="3">
+        <v>637</v>
+      </c>
+      <c r="H33" s="3">
+        <v>444</v>
+      </c>
+      <c r="I33" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>556</v>
+      </c>
+      <c r="B34" s="3">
+        <v>776</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7755</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2121</v>
+      </c>
+      <c r="E34" s="3">
+        <v>354</v>
+      </c>
+      <c r="F34" s="3">
+        <v>637</v>
+      </c>
+      <c r="G34" s="3">
+        <v>444</v>
+      </c>
+      <c r="H34" s="3">
+        <v>321</v>
+      </c>
+      <c r="I34" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>776</v>
+      </c>
+      <c r="B35" s="3">
+        <v>7755</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2121</v>
+      </c>
+      <c r="D35" s="3">
+        <v>354</v>
+      </c>
+      <c r="E35" s="3">
+        <v>637</v>
+      </c>
+      <c r="F35" s="3">
+        <v>444</v>
+      </c>
+      <c r="G35" s="3">
+        <v>321</v>
+      </c>
+      <c r="H35" s="3">
+        <v>555</v>
+      </c>
+      <c r="I35" s="3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>7755</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2121</v>
+      </c>
+      <c r="C36" s="3">
+        <v>354</v>
+      </c>
+      <c r="D36" s="3">
+        <v>637</v>
+      </c>
+      <c r="E36" s="3">
+        <v>444</v>
+      </c>
+      <c r="F36" s="3">
+        <v>321</v>
+      </c>
+      <c r="G36" s="3">
+        <v>555</v>
+      </c>
+      <c r="H36" s="3">
+        <v>556</v>
+      </c>
+      <c r="I36" s="3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>2121</v>
+      </c>
+      <c r="B37" s="3">
+        <v>354</v>
+      </c>
+      <c r="C37" s="3">
+        <v>637</v>
+      </c>
+      <c r="D37" s="3">
+        <v>444</v>
+      </c>
+      <c r="E37" s="3">
+        <v>321</v>
+      </c>
+      <c r="F37" s="3">
+        <v>555</v>
+      </c>
+      <c r="G37" s="3">
+        <v>556</v>
+      </c>
+      <c r="H37" s="3">
+        <v>776</v>
+      </c>
+      <c r="I37" s="3">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>354</v>
+      </c>
+      <c r="B38" s="3">
+        <v>637</v>
+      </c>
+      <c r="C38" s="3">
+        <v>444</v>
+      </c>
+      <c r="D38" s="3">
+        <v>321</v>
+      </c>
+      <c r="E38" s="3">
+        <v>555</v>
+      </c>
+      <c r="F38" s="3">
+        <v>556</v>
+      </c>
+      <c r="G38" s="3">
+        <v>776</v>
+      </c>
+      <c r="H38" s="3">
+        <v>7755</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>637</v>
+      </c>
+      <c r="B39" s="3">
+        <v>444</v>
+      </c>
+      <c r="C39" s="3">
+        <v>321</v>
+      </c>
+      <c r="D39" s="3">
+        <v>555</v>
+      </c>
+      <c r="E39" s="3">
+        <v>556</v>
+      </c>
+      <c r="F39" s="3">
+        <v>776</v>
+      </c>
+      <c r="G39" s="3">
+        <v>7755</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2121</v>
+      </c>
+      <c r="I39" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>444</v>
+      </c>
+      <c r="B40" s="3">
+        <v>321</v>
+      </c>
+      <c r="C40" s="3">
+        <v>555</v>
+      </c>
+      <c r="D40" s="3">
+        <v>556</v>
+      </c>
+      <c r="E40" s="3">
+        <v>776</v>
+      </c>
+      <c r="F40" s="3">
+        <v>7755</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2121</v>
+      </c>
+      <c r="H40" s="3">
+        <v>354</v>
+      </c>
+      <c r="I40" s="3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>321</v>
+      </c>
+      <c r="B41" s="3">
+        <v>555</v>
+      </c>
+      <c r="C41" s="3">
+        <v>556</v>
+      </c>
+      <c r="D41" s="3">
+        <v>776</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7755</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2121</v>
+      </c>
+      <c r="G41" s="3">
+        <v>354</v>
+      </c>
+      <c r="H41" s="3">
+        <v>637</v>
+      </c>
+      <c r="I41" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>555</v>
+      </c>
+      <c r="B42" s="3">
+        <v>556</v>
+      </c>
+      <c r="C42" s="3">
+        <v>776</v>
+      </c>
+      <c r="D42" s="3">
+        <v>7755</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2121</v>
+      </c>
+      <c r="F42" s="3">
+        <v>354</v>
+      </c>
+      <c r="G42" s="3">
+        <v>637</v>
+      </c>
+      <c r="H42" s="3">
+        <v>444</v>
+      </c>
+      <c r="I42" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>556</v>
+      </c>
+      <c r="B43" s="3">
+        <v>776</v>
+      </c>
+      <c r="C43" s="3">
+        <v>7755</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2121</v>
+      </c>
+      <c r="E43" s="3">
+        <v>354</v>
+      </c>
+      <c r="F43" s="3">
+        <v>637</v>
+      </c>
+      <c r="G43" s="3">
+        <v>444</v>
+      </c>
+      <c r="H43" s="3">
+        <v>321</v>
+      </c>
+      <c r="I43" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>776</v>
+      </c>
+      <c r="B44" s="3">
+        <v>7755</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2121</v>
+      </c>
+      <c r="D44" s="3">
+        <v>354</v>
+      </c>
+      <c r="E44" s="3">
+        <v>637</v>
+      </c>
+      <c r="F44" s="3">
+        <v>444</v>
+      </c>
+      <c r="G44" s="3">
+        <v>321</v>
+      </c>
+      <c r="H44" s="3">
+        <v>555</v>
+      </c>
+      <c r="I44" s="3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>7755</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2121</v>
+      </c>
+      <c r="C45" s="3">
+        <v>354</v>
+      </c>
+      <c r="D45" s="3">
+        <v>637</v>
+      </c>
+      <c r="E45" s="3">
+        <v>444</v>
+      </c>
+      <c r="F45" s="3">
+        <v>321</v>
+      </c>
+      <c r="G45" s="3">
+        <v>555</v>
+      </c>
+      <c r="H45" s="3">
+        <v>556</v>
+      </c>
+      <c r="I45" s="3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>2121</v>
+      </c>
+      <c r="B46" s="3">
+        <v>354</v>
+      </c>
+      <c r="C46" s="3">
+        <v>637</v>
+      </c>
+      <c r="D46" s="3">
+        <v>444</v>
+      </c>
+      <c r="E46" s="3">
+        <v>321</v>
+      </c>
+      <c r="F46" s="3">
+        <v>555</v>
+      </c>
+      <c r="G46" s="3">
+        <v>556</v>
+      </c>
+      <c r="H46" s="3">
+        <v>776</v>
+      </c>
+      <c r="I46" s="3">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>354</v>
+      </c>
+      <c r="B47" s="3">
+        <v>637</v>
+      </c>
+      <c r="C47" s="3">
+        <v>444</v>
+      </c>
+      <c r="D47" s="3">
+        <v>321</v>
+      </c>
+      <c r="E47" s="3">
+        <v>555</v>
+      </c>
+      <c r="F47" s="3">
+        <v>556</v>
+      </c>
+      <c r="G47" s="3">
+        <v>776</v>
+      </c>
+      <c r="H47" s="3">
+        <v>7755</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>637</v>
+      </c>
+      <c r="B48" s="3">
+        <v>444</v>
+      </c>
+      <c r="C48" s="3">
+        <v>321</v>
+      </c>
+      <c r="D48" s="3">
+        <v>555</v>
+      </c>
+      <c r="E48" s="3">
+        <v>556</v>
+      </c>
+      <c r="F48" s="3">
+        <v>776</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7755</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2121</v>
+      </c>
+      <c r="I48" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>444</v>
+      </c>
+      <c r="B49" s="3">
+        <v>321</v>
+      </c>
+      <c r="C49" s="3">
+        <v>555</v>
+      </c>
+      <c r="D49" s="3">
+        <v>556</v>
+      </c>
+      <c r="E49" s="3">
+        <v>776</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7755</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2121</v>
+      </c>
+      <c r="H49" s="3">
+        <v>354</v>
+      </c>
+      <c r="I49" s="3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>321</v>
+      </c>
+      <c r="B50" s="3">
+        <v>555</v>
+      </c>
+      <c r="C50" s="3">
+        <v>556</v>
+      </c>
+      <c r="D50" s="3">
+        <v>776</v>
+      </c>
+      <c r="E50" s="3">
+        <v>7755</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2121</v>
+      </c>
+      <c r="G50" s="3">
+        <v>354</v>
+      </c>
+      <c r="H50" s="3">
+        <v>637</v>
+      </c>
+      <c r="I50" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>555</v>
+      </c>
+      <c r="B51" s="3">
+        <v>556</v>
+      </c>
+      <c r="C51" s="3">
+        <v>776</v>
+      </c>
+      <c r="D51" s="3">
+        <v>7755</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2121</v>
+      </c>
+      <c r="F51" s="3">
+        <v>354</v>
+      </c>
+      <c r="G51" s="3">
+        <v>637</v>
+      </c>
+      <c r="H51" s="3">
+        <v>444</v>
+      </c>
+      <c r="I51" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>556</v>
+      </c>
+      <c r="B52" s="3">
+        <v>776</v>
+      </c>
+      <c r="C52" s="3">
+        <v>7755</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2121</v>
+      </c>
+      <c r="E52" s="3">
+        <v>354</v>
+      </c>
+      <c r="F52" s="3">
+        <v>637</v>
+      </c>
+      <c r="G52" s="3">
+        <v>444</v>
+      </c>
+      <c r="H52" s="3">
+        <v>321</v>
+      </c>
+      <c r="I52" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>776</v>
+      </c>
+      <c r="B53" s="3">
+        <v>7755</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2121</v>
+      </c>
+      <c r="D53" s="3">
+        <v>354</v>
+      </c>
+      <c r="E53" s="3">
+        <v>637</v>
+      </c>
+      <c r="F53" s="3">
+        <v>444</v>
+      </c>
+      <c r="G53" s="3">
+        <v>321</v>
+      </c>
+      <c r="H53" s="3">
+        <v>555</v>
+      </c>
+      <c r="I53" s="3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>7755</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2121</v>
+      </c>
+      <c r="C54" s="3">
+        <v>354</v>
+      </c>
+      <c r="D54" s="3">
+        <v>637</v>
+      </c>
+      <c r="E54" s="3">
+        <v>444</v>
+      </c>
+      <c r="F54" s="3">
+        <v>321</v>
+      </c>
+      <c r="G54" s="3">
+        <v>555</v>
+      </c>
+      <c r="H54" s="3">
+        <v>556</v>
+      </c>
+      <c r="I54" s="3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>2121</v>
+      </c>
+      <c r="B55" s="3">
+        <v>354</v>
+      </c>
+      <c r="C55" s="3">
+        <v>637</v>
+      </c>
+      <c r="D55" s="3">
+        <v>444</v>
+      </c>
+      <c r="E55" s="3">
+        <v>321</v>
+      </c>
+      <c r="F55" s="3">
+        <v>555</v>
+      </c>
+      <c r="G55" s="3">
+        <v>556</v>
+      </c>
+      <c r="H55" s="3">
+        <v>776</v>
+      </c>
+      <c r="I55" s="3">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>354</v>
+      </c>
+      <c r="B56" s="3">
+        <v>637</v>
+      </c>
+      <c r="C56" s="3">
+        <v>444</v>
+      </c>
+      <c r="D56" s="3">
+        <v>321</v>
+      </c>
+      <c r="E56" s="3">
+        <v>555</v>
+      </c>
+      <c r="F56" s="3">
+        <v>556</v>
+      </c>
+      <c r="G56" s="3">
+        <v>776</v>
+      </c>
+      <c r="H56" s="3">
+        <v>7755</v>
+      </c>
+      <c r="I56" s="3">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>637</v>
+      </c>
+      <c r="B57" s="3">
+        <v>444</v>
+      </c>
+      <c r="C57" s="3">
+        <v>321</v>
+      </c>
+      <c r="D57" s="3">
+        <v>555</v>
+      </c>
+      <c r="E57" s="3">
+        <v>556</v>
+      </c>
+      <c r="F57" s="3">
+        <v>776</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7755</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2121</v>
+      </c>
+      <c r="I57" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>444</v>
+      </c>
+      <c r="B58" s="3">
+        <v>321</v>
+      </c>
+      <c r="C58" s="3">
+        <v>555</v>
+      </c>
+      <c r="D58" s="3">
+        <v>556</v>
+      </c>
+      <c r="E58" s="3">
+        <v>776</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7755</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2121</v>
+      </c>
+      <c r="H58" s="3">
+        <v>354</v>
+      </c>
+      <c r="I58" s="3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>321</v>
+      </c>
+      <c r="B59" s="3">
+        <v>555</v>
+      </c>
+      <c r="C59" s="3">
+        <v>556</v>
+      </c>
+      <c r="D59" s="3">
+        <v>776</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7755</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2121</v>
+      </c>
+      <c r="G59" s="3">
+        <v>354</v>
+      </c>
+      <c r="H59" s="3">
+        <v>637</v>
+      </c>
+      <c r="I59" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>555</v>
+      </c>
+      <c r="B60" s="3">
+        <v>556</v>
+      </c>
+      <c r="C60" s="3">
+        <v>776</v>
+      </c>
+      <c r="D60" s="3">
+        <v>7755</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2121</v>
+      </c>
+      <c r="F60" s="3">
+        <v>354</v>
+      </c>
+      <c r="G60" s="3">
+        <v>637</v>
+      </c>
+      <c r="H60" s="3">
+        <v>444</v>
+      </c>
+      <c r="I60" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>556</v>
+      </c>
+      <c r="B61" s="3">
+        <v>776</v>
+      </c>
+      <c r="C61" s="3">
+        <v>7755</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2121</v>
+      </c>
+      <c r="E61" s="3">
+        <v>354</v>
+      </c>
+      <c r="F61" s="3">
+        <v>637</v>
+      </c>
+      <c r="G61" s="3">
+        <v>444</v>
+      </c>
+      <c r="H61" s="3">
+        <v>321</v>
+      </c>
+      <c r="I61" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>776</v>
+      </c>
+      <c r="B62" s="3">
+        <v>7755</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2121</v>
+      </c>
+      <c r="D62" s="3">
+        <v>354</v>
+      </c>
+      <c r="E62" s="3">
+        <v>637</v>
+      </c>
+      <c r="F62" s="3">
+        <v>444</v>
+      </c>
+      <c r="G62" s="3">
+        <v>321</v>
+      </c>
+      <c r="H62" s="3">
+        <v>555</v>
+      </c>
+      <c r="I62" s="3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7755</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2121</v>
+      </c>
+      <c r="C63" s="3">
+        <v>354</v>
+      </c>
+      <c r="D63" s="3">
+        <v>637</v>
+      </c>
+      <c r="E63" s="3">
+        <v>444</v>
+      </c>
+      <c r="F63" s="3">
+        <v>321</v>
+      </c>
+      <c r="G63" s="3">
+        <v>555</v>
+      </c>
+      <c r="H63" s="3">
+        <v>556</v>
+      </c>
+      <c r="I63" s="3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>2121</v>
+      </c>
+      <c r="B64" s="3">
+        <v>354</v>
+      </c>
+      <c r="C64" s="3">
+        <v>637</v>
+      </c>
+      <c r="D64" s="3">
+        <v>444</v>
+      </c>
+      <c r="E64" s="3">
+        <v>321</v>
+      </c>
+      <c r="F64" s="3">
+        <v>555</v>
+      </c>
+      <c r="G64" s="3">
+        <v>556</v>
+      </c>
+      <c r="H64" s="3">
+        <v>776</v>
+      </c>
+      <c r="I64" s="3">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>354</v>
+      </c>
+      <c r="B65" s="3">
+        <v>637</v>
+      </c>
+      <c r="C65" s="3">
+        <v>444</v>
+      </c>
+      <c r="D65" s="3">
+        <v>321</v>
+      </c>
+      <c r="E65" s="3">
+        <v>555</v>
+      </c>
+      <c r="F65" s="3">
+        <v>556</v>
+      </c>
+      <c r="G65" s="3">
+        <v>776</v>
+      </c>
+      <c r="H65" s="3">
+        <v>7755</v>
+      </c>
+      <c r="I65" s="3">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>637</v>
+      </c>
+      <c r="B66" s="3">
+        <v>444</v>
+      </c>
+      <c r="C66" s="3">
+        <v>321</v>
+      </c>
+      <c r="D66" s="3">
+        <v>555</v>
+      </c>
+      <c r="E66" s="3">
+        <v>556</v>
+      </c>
+      <c r="F66" s="3">
+        <v>776</v>
+      </c>
+      <c r="G66" s="3">
+        <v>7755</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2121</v>
+      </c>
+      <c r="I66" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>444</v>
+      </c>
+      <c r="B67" s="3">
+        <v>321</v>
+      </c>
+      <c r="C67" s="3">
+        <v>555</v>
+      </c>
+      <c r="D67" s="3">
+        <v>556</v>
+      </c>
+      <c r="E67" s="3">
+        <v>776</v>
+      </c>
+      <c r="F67" s="3">
+        <v>7755</v>
+      </c>
+      <c r="G67" s="3">
+        <v>2121</v>
+      </c>
+      <c r="H67" s="3">
+        <v>354</v>
+      </c>
+      <c r="I67" s="3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>321</v>
+      </c>
+      <c r="B68" s="3">
+        <v>555</v>
+      </c>
+      <c r="C68" s="3">
+        <v>556</v>
+      </c>
+      <c r="D68" s="3">
+        <v>776</v>
+      </c>
+      <c r="E68" s="3">
+        <v>7755</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2121</v>
+      </c>
+      <c r="G68" s="3">
+        <v>354</v>
+      </c>
+      <c r="H68" s="3">
+        <v>637</v>
+      </c>
+      <c r="I68" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>555</v>
+      </c>
+      <c r="B69" s="3">
+        <v>556</v>
+      </c>
+      <c r="C69" s="3">
+        <v>776</v>
+      </c>
+      <c r="D69" s="3">
+        <v>7755</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2121</v>
+      </c>
+      <c r="F69" s="3">
+        <v>354</v>
+      </c>
+      <c r="G69" s="3">
+        <v>637</v>
+      </c>
+      <c r="H69" s="3">
+        <v>444</v>
+      </c>
+      <c r="I69" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>556</v>
+      </c>
+      <c r="B70" s="3">
+        <v>776</v>
+      </c>
+      <c r="C70" s="3">
+        <v>7755</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2121</v>
+      </c>
+      <c r="E70" s="3">
+        <v>354</v>
+      </c>
+      <c r="F70" s="3">
+        <v>637</v>
+      </c>
+      <c r="G70" s="3">
+        <v>444</v>
+      </c>
+      <c r="H70" s="3">
+        <v>321</v>
+      </c>
+      <c r="I70" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>776</v>
+      </c>
+      <c r="B71" s="3">
+        <v>7755</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2121</v>
+      </c>
+      <c r="D71" s="3">
+        <v>354</v>
+      </c>
+      <c r="E71" s="3">
+        <v>637</v>
+      </c>
+      <c r="F71" s="3">
+        <v>444</v>
+      </c>
+      <c r="G71" s="3">
+        <v>321</v>
+      </c>
+      <c r="H71" s="3">
+        <v>555</v>
+      </c>
+      <c r="I71" s="3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>7755</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2121</v>
+      </c>
+      <c r="C72" s="3">
+        <v>354</v>
+      </c>
+      <c r="D72" s="3">
+        <v>637</v>
+      </c>
+      <c r="E72" s="3">
+        <v>444</v>
+      </c>
+      <c r="F72" s="3">
+        <v>321</v>
+      </c>
+      <c r="G72" s="3">
+        <v>555</v>
+      </c>
+      <c r="H72" s="3">
+        <v>556</v>
+      </c>
+      <c r="I72" s="3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>2121</v>
+      </c>
+      <c r="B73" s="3">
+        <v>354</v>
+      </c>
+      <c r="C73" s="3">
+        <v>637</v>
+      </c>
+      <c r="D73" s="3">
+        <v>444</v>
+      </c>
+      <c r="E73" s="3">
+        <v>321</v>
+      </c>
+      <c r="F73" s="3">
+        <v>555</v>
+      </c>
+      <c r="G73" s="3">
+        <v>556</v>
+      </c>
+      <c r="H73" s="3">
+        <v>776</v>
+      </c>
+      <c r="I73" s="3">
+        <v>7755</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.15" footer="0.15"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Roboto,Regular"&amp;12Report Title&amp;10
-Report Header</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Roboto,Regular"&amp;12Title Line 1&amp;14
+&amp;10Title Line 2</oddHeader>
     <oddFooter>&amp;R
 &amp;G</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
